--- a/App/Test.xlsx
+++ b/App/Test.xlsx
@@ -1,44 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28016"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmedhatem/Desktop/Side_Projects/SPES-PE/App/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>["","","","",""]</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -343,14 +334,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>